--- a/Unity/Assets/Config/Excel/Datas/StartConfig/RouterTest/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/RouterTest/__beans__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Release/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET8/Unity/Assets/Config/Excel/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54655C3-B600-8B48-8804-182CAC7B3E2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD4EC30-ED0A-8C4D-B673-D7E7C0C5E435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23520" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50160" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -31,6 +31,9 @@
     <t>parent</t>
   </si>
   <si>
+    <t>valueType</t>
+  </si>
+  <si>
     <t>sep</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>comment</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>tags</t>
   </si>
   <si>
@@ -52,9 +58,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -74,13 +77,29 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段别名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>variants</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段变体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,15 +111,20 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="4"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -108,22 +132,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -161,34 +170,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,22 +467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="2" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="9" width="15" customWidth="1"/>
+    <col min="10" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,129 +504,95 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
-        <v>5</v>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
         <v>6</v>
       </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
+    <row r="4" spans="1:16"/>
+    <row r="5" spans="1:16"/>
+    <row r="6" spans="1:16"/>
+    <row r="7" spans="1:16"/>
+    <row r="8" spans="1:16"/>
+    <row r="9" spans="1:16"/>
+    <row r="10" spans="1:16"/>
+    <row r="11" spans="1:16"/>
+    <row r="12" spans="1:16"/>
+    <row r="13" spans="1:16"/>
+    <row r="14" spans="1:16"/>
+    <row r="15" spans="1:16"/>
+    <row r="16" spans="1:16"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="J1:P1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
